--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T07:40:22+00:00</t>
+    <t>2022-03-04T08:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:50:25+00:00</t>
+    <t>2022-03-04T09:19:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T09:19:21+00:00</t>
+    <t>2022-03-11T15:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T15:39:18+00:00</t>
+    <t>2022-03-11T16:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T16:12:42+00:00</t>
+    <t>2022-03-29T08:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>9</t>
+    <t>1</t>
   </si>
   <si>
     <t>Level</t>
@@ -129,61 +129,10 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>colonoscopy</t>
-  </si>
-  <si>
-    <t>Colonoscopie</t>
-  </si>
-  <si>
-    <t>additional_mammography_or_and_echography_left</t>
-  </si>
-  <si>
-    <t>Links: bijkomende mammografie en/of echografie</t>
-  </si>
-  <si>
-    <t>additional_mammography_or_and_echography_right</t>
-  </si>
-  <si>
-    <t>Rechts: bijkomende mammografie en/of echografie</t>
-  </si>
-  <si>
-    <t>pathological_examination_left</t>
-  </si>
-  <si>
-    <t>Links: pathologisch onderzoek</t>
-  </si>
-  <si>
-    <t>pathological_examination_right</t>
-  </si>
-  <si>
-    <t>Rechts: pathologisch onderzoek</t>
-  </si>
-  <si>
-    <t>mammographic_check_after_6_months_left</t>
-  </si>
-  <si>
-    <t>Links: mammografische controle(s) na 6 maanden</t>
-  </si>
-  <si>
-    <t>mammographic_check_after_6_months_richt</t>
-  </si>
-  <si>
-    <t>Rechts: mammografische controle(s) na 6 maanden</t>
-  </si>
-  <si>
-    <t>compare_with_previous_mammography_left</t>
-  </si>
-  <si>
-    <t>Links: te vergelijken met vorige mammografie</t>
-  </si>
-  <si>
-    <t>compare_with_previous_mammography_right</t>
-  </si>
-  <si>
-    <t>Rechts: te vergelijken met vorige mammografie</t>
+    <t>compare_with_previous_mammography</t>
+  </si>
+  <si>
+    <t>te vergelijken met vorige mammografie</t>
   </si>
 </sst>
 </file>
@@ -506,7 +455,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,111 +477,15 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:17:10+00:00</t>
+    <t>2022-03-29T08:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:21:37+00:00</t>
+    <t>2022-03-29T10:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T10:12:25+00:00</t>
+    <t>2022-03-30T15:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:39:36+00:00</t>
+    <t>2022-04-06T16:28:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T16:28:25+00:00</t>
+    <t>2022-04-08T16:35:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T16:35:46+00:00</t>
+    <t>2022-04-11T16:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
+++ b/CodeSystem-BeCSBevolkingsonderzoekFollowUpAdvice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:06:52+00:00</t>
+    <t>2022-04-12T10:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
